--- a/GroupA_6-1-2015/data/data_Exp1.xlsx
+++ b/GroupA_6-1-2015/data/data_Exp1.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90A7882-5435-49F5-BE57-03E50C369F3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="585" windowWidth="7500" windowHeight="4770" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,15 @@
     <sheet name="summary" sheetId="7" r:id="rId5"/>
     <sheet name="slope" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -220,23 +229,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="####.000"/>
-    <numFmt numFmtId="177" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="####.000"/>
+    <numFmt numFmtId="165" formatCode="###0.000"/>
   </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -261,13 +270,13 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,14 +284,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -629,25 +638,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -656,19 +665,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -677,28 +686,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="24" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -716,16 +728,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal_10sub_final" xfId="4"/>
-    <cellStyle name="Normal_stat" xfId="2"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="解释性文本" xfId="3" builtinId="53"/>
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_10sub_final" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal_stat" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -733,18 +742,33 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -792,6 +816,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02A7-4845-BAF9-C67F642507C7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -840,8 +870,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02A7-4845-BAF9-C67F642507C7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="33296384"/>
         <c:axId val="33297920"/>
       </c:lineChart>
@@ -850,14 +894,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="33297920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="33297920"/>
@@ -865,9 +913,12 @@
           <c:orientation val="minMax"/>
           <c:min val="30"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="33296384"/>
         <c:crosses val="autoZero"/>
@@ -876,9 +927,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -889,13 +942,25 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -943,6 +1008,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2601-4480-80A2-6E2093018178}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -991,8 +1062,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2601-4480-80A2-6E2093018178}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="116696576"/>
         <c:axId val="116698112"/>
       </c:lineChart>
@@ -1001,23 +1086,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116698112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="116698112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116696576"/>
         <c:crosses val="autoZero"/>
@@ -1026,9 +1118,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1039,13 +1133,25 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1093,6 +1199,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FDE0-452A-92B8-1CD2A4662067}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1141,8 +1253,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FDE0-452A-92B8-1CD2A4662067}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="117066752"/>
         <c:axId val="117072640"/>
       </c:lineChart>
@@ -1151,23 +1277,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="117072640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="117072640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="117066752"/>
         <c:crosses val="autoZero"/>
@@ -1176,9 +1309,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1189,13 +1324,25 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1243,6 +1390,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-939F-4D83-9A14-53513974B70A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1291,8 +1444,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-939F-4D83-9A14-53513974B70A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="117105408"/>
         <c:axId val="117106944"/>
       </c:lineChart>
@@ -1301,23 +1468,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="117106944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="117106944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="117105408"/>
         <c:crosses val="autoZero"/>
@@ -1326,9 +1500,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1339,13 +1515,25 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1393,6 +1581,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59CF-4BD3-B3E3-E9F75ADD5690}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1441,8 +1635,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-59CF-4BD3-B3E3-E9F75ADD5690}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="121207424"/>
         <c:axId val="121209216"/>
       </c:lineChart>
@@ -1451,14 +1659,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121209216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="121209216"/>
@@ -1466,9 +1678,12 @@
           <c:orientation val="minMax"/>
           <c:min val="40"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121207424"/>
         <c:crosses val="autoZero"/>
@@ -1477,9 +1692,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1490,13 +1707,25 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1544,6 +1773,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7834-49FE-A7A4-B8F2B97DDD0F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1592,8 +1827,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7834-49FE-A7A4-B8F2B97DDD0F}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="121217408"/>
         <c:axId val="121218944"/>
       </c:lineChart>
@@ -1602,14 +1851,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121218944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="121218944"/>
@@ -1617,9 +1870,12 @@
           <c:orientation val="minMax"/>
           <c:min val="40"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121217408"/>
         <c:crosses val="autoZero"/>
@@ -1628,9 +1884,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1641,13 +1899,25 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1695,6 +1965,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE15-44C8-A277-2E242D1BB0B1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1743,8 +2019,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE15-44C8-A277-2E242D1BB0B1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="121706368"/>
         <c:axId val="121707904"/>
       </c:lineChart>
@@ -1753,23 +2043,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121707904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="121707904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121706368"/>
         <c:crosses val="autoZero"/>
@@ -1778,9 +2075,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1791,13 +2090,25 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1845,6 +2156,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A716-4978-A289-BE70620E1793}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1893,8 +2210,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A716-4978-A289-BE70620E1793}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="121732480"/>
         <c:axId val="121734272"/>
       </c:lineChart>
@@ -1903,23 +2234,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121734272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="121734272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121732480"/>
         <c:crosses val="autoZero"/>
@@ -1928,9 +2266,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1941,13 +2281,25 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1995,6 +2347,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1ABC-4A12-A7D7-261AD1248694}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2043,8 +2401,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1ABC-4A12-A7D7-261AD1248694}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="121762944"/>
         <c:axId val="121764480"/>
       </c:lineChart>
@@ -2053,23 +2425,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121764480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="121764480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121762944"/>
         <c:crosses val="autoZero"/>
@@ -2078,9 +2457,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2091,13 +2472,25 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2145,6 +2538,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1FC-4F49-AF4D-F14060CB62C3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2193,8 +2592,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1FC-4F49-AF4D-F14060CB62C3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="121850496"/>
         <c:axId val="121893248"/>
       </c:lineChart>
@@ -2203,23 +2616,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121893248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="121893248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121850496"/>
         <c:crosses val="autoZero"/>
@@ -2228,9 +2648,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2241,13 +2663,25 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2295,6 +2729,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBAE-43F9-8DEC-20E5C2298CD3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2343,8 +2783,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EBAE-43F9-8DEC-20E5C2298CD3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="123482496"/>
         <c:axId val="123484032"/>
       </c:lineChart>
@@ -2353,23 +2807,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="123484032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="123484032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="123482496"/>
         <c:crosses val="autoZero"/>
@@ -2378,9 +2839,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2391,13 +2854,25 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2445,6 +2920,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDB0-43D1-B4E6-2B946C62F7F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2493,8 +2974,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CDB0-43D1-B4E6-2B946C62F7F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="121176064"/>
         <c:axId val="121177600"/>
       </c:lineChart>
@@ -2503,14 +2998,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121177600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="121177600"/>
@@ -2518,9 +3017,12 @@
           <c:orientation val="minMax"/>
           <c:min val="40"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="121176064"/>
         <c:crosses val="autoZero"/>
@@ -2529,9 +3031,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2542,13 +3046,25 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2596,6 +3112,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-900D-4A49-9E2E-6FDF1877351B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2644,8 +3166,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-900D-4A49-9E2E-6FDF1877351B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="123496320"/>
         <c:axId val="123497856"/>
       </c:lineChart>
@@ -2654,23 +3190,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="123497856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="123497856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="123496320"/>
         <c:crosses val="autoZero"/>
@@ -2679,9 +3222,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2692,13 +3237,25 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2746,6 +3303,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE28-4B61-AAA9-274153D39FF5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2794,8 +3357,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BE28-4B61-AAA9-274153D39FF5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138218880"/>
         <c:axId val="138224768"/>
       </c:lineChart>
@@ -2804,14 +3381,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138224768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138224768"/>
@@ -2819,9 +3400,12 @@
           <c:orientation val="minMax"/>
           <c:min val="30"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138218880"/>
         <c:crosses val="autoZero"/>
@@ -2830,9 +3414,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2843,13 +3429,25 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2897,6 +3495,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-690D-4EF4-A72C-986EF58CC955}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2945,8 +3549,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-690D-4EF4-A72C-986EF58CC955}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138241152"/>
         <c:axId val="138242688"/>
       </c:lineChart>
@@ -2955,14 +3573,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138242688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138242688"/>
@@ -2970,9 +3592,12 @@
           <c:orientation val="minMax"/>
           <c:min val="40"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138241152"/>
         <c:crosses val="autoZero"/>
@@ -2981,9 +3606,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2994,13 +3621,25 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3048,6 +3687,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DF6-412F-BD0B-95A2DA166251}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3096,8 +3741,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0DF6-412F-BD0B-95A2DA166251}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138279552"/>
         <c:axId val="138432896"/>
       </c:lineChart>
@@ -3106,14 +3765,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138432896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138432896"/>
@@ -3121,9 +3784,12 @@
           <c:orientation val="minMax"/>
           <c:min val="30"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138279552"/>
         <c:crosses val="autoZero"/>
@@ -3132,9 +3798,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3145,13 +3813,25 @@
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3199,6 +3879,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-016E-47E3-9010-C2C36038906D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3247,8 +3933,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-016E-47E3-9010-C2C36038906D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138449280"/>
         <c:axId val="138450816"/>
       </c:lineChart>
@@ -3257,23 +3957,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138450816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138450816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138449280"/>
         <c:crosses val="autoZero"/>
@@ -3282,9 +3989,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3295,13 +4004,25 @@
 </file>
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3349,6 +4070,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5FA-4032-9868-46CBD2F92BBB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3397,8 +4124,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5FA-4032-9868-46CBD2F92BBB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138496256"/>
         <c:axId val="138530816"/>
       </c:lineChart>
@@ -3407,14 +4148,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138530816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138530816"/>
@@ -3422,9 +4167,12 @@
           <c:orientation val="minMax"/>
           <c:min val="40"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138496256"/>
         <c:crosses val="autoZero"/>
@@ -3433,9 +4181,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3446,13 +4196,25 @@
 </file>
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3500,6 +4262,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0172-45D9-9047-F2FAB83E719D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3548,8 +4316,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0172-45D9-9047-F2FAB83E719D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138674176"/>
         <c:axId val="138675712"/>
       </c:lineChart>
@@ -3558,14 +4340,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138675712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138675712"/>
@@ -3573,9 +4359,12 @@
           <c:orientation val="minMax"/>
           <c:min val="40"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138674176"/>
         <c:crosses val="autoZero"/>
@@ -3584,9 +4373,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3597,13 +4388,25 @@
 </file>
 
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3651,6 +4454,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F9C-44DB-A12F-135B1D5F00FB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3699,8 +4508,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F9C-44DB-A12F-135B1D5F00FB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138712576"/>
         <c:axId val="138714112"/>
       </c:lineChart>
@@ -3709,14 +4532,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138714112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138714112"/>
@@ -3724,9 +4551,12 @@
           <c:orientation val="minMax"/>
           <c:min val="25"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138712576"/>
         <c:crosses val="autoZero"/>
@@ -3735,9 +4565,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3748,13 +4580,25 @@
 </file>
 
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3802,6 +4646,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-47B0-4880-AEEE-A747E1694DC9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3850,8 +4700,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-47B0-4880-AEEE-A747E1694DC9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138750976"/>
         <c:axId val="138785536"/>
       </c:lineChart>
@@ -3860,14 +4724,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138785536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138785536"/>
@@ -3875,9 +4743,12 @@
           <c:orientation val="minMax"/>
           <c:min val="25"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138750976"/>
         <c:crosses val="autoZero"/>
@@ -3886,9 +4757,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3899,13 +4772,25 @@
 </file>
 
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3953,6 +4838,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BD3E-48CB-BC6E-40E3BAB43B96}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4001,8 +4892,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BD3E-48CB-BC6E-40E3BAB43B96}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138797824"/>
         <c:axId val="138799360"/>
       </c:lineChart>
@@ -4011,23 +4916,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138799360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138799360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138797824"/>
         <c:crosses val="autoZero"/>
@@ -4036,9 +4948,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4049,13 +4963,25 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4103,6 +5029,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC9A-4AF5-9C97-41EC665714AF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4151,8 +5083,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC9A-4AF5-9C97-41EC665714AF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="146897152"/>
         <c:axId val="160137984"/>
       </c:lineChart>
@@ -4161,14 +5107,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="160137984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="160137984"/>
@@ -4176,9 +5126,12 @@
           <c:orientation val="minMax"/>
           <c:min val="30"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="146897152"/>
         <c:crosses val="autoZero"/>
@@ -4187,9 +5140,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4200,13 +5155,25 @@
 </file>
 
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4254,6 +5221,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B6D9-49D7-A984-8266C769A472}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4302,8 +5275,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B6D9-49D7-A984-8266C769A472}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138840320"/>
         <c:axId val="138854400"/>
       </c:lineChart>
@@ -4312,23 +5299,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138854400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138854400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138840320"/>
         <c:crosses val="autoZero"/>
@@ -4337,9 +5331,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4350,13 +5346,25 @@
 </file>
 
 <file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4404,6 +5412,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6054-493B-B2CB-8C990ACAA5B4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4452,8 +5466,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6054-493B-B2CB-8C990ACAA5B4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138874880"/>
         <c:axId val="138876416"/>
       </c:lineChart>
@@ -4462,14 +5490,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138876416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138876416"/>
@@ -4477,9 +5509,12 @@
           <c:orientation val="minMax"/>
           <c:min val="40"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138874880"/>
         <c:crosses val="autoZero"/>
@@ -4488,9 +5523,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4501,13 +5538,25 @@
 </file>
 
 <file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4555,6 +5604,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-56CF-4D54-8662-8BF591F12F6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4603,8 +5658,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-56CF-4D54-8662-8BF591F12F6D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138892800"/>
         <c:axId val="138894336"/>
       </c:lineChart>
@@ -4613,14 +5682,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138894336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138894336"/>
@@ -4628,9 +5701,12 @@
           <c:orientation val="minMax"/>
           <c:min val="40"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138892800"/>
         <c:crosses val="autoZero"/>
@@ -4639,9 +5715,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4652,13 +5730,25 @@
 </file>
 
 <file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4706,6 +5796,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BA9-4191-979A-193EB5DAA96E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4754,8 +5850,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9BA9-4191-979A-193EB5DAA96E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138931200"/>
         <c:axId val="138937088"/>
       </c:lineChart>
@@ -4764,14 +5874,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138937088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138937088"/>
@@ -4779,9 +5893,12 @@
           <c:orientation val="minMax"/>
           <c:min val="30"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138931200"/>
         <c:crosses val="autoZero"/>
@@ -4790,9 +5907,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4803,13 +5922,25 @@
 </file>
 
 <file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -4857,6 +5988,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7B9-421E-B64A-54E598C7B5F9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4905,8 +6042,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F7B9-421E-B64A-54E598C7B5F9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="138965760"/>
         <c:axId val="138967296"/>
       </c:lineChart>
@@ -4915,14 +6066,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138967296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="138967296"/>
@@ -4930,9 +6085,12 @@
           <c:orientation val="minMax"/>
           <c:min val="30"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="138965760"/>
         <c:crosses val="autoZero"/>
@@ -4941,9 +6099,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -4954,13 +6114,25 @@
 </file>
 
 <file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5008,6 +6180,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44F3-4111-AA46-F024AE5F7D4D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5056,8 +6234,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-44F3-4111-AA46-F024AE5F7D4D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="139004160"/>
         <c:axId val="139014144"/>
       </c:lineChart>
@@ -5066,14 +6258,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="139014144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="139014144"/>
@@ -5081,9 +6277,12 @@
           <c:orientation val="minMax"/>
           <c:min val="25"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="139004160"/>
         <c:crosses val="autoZero"/>
@@ -5092,9 +6291,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5105,13 +6306,25 @@
 </file>
 
 <file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5159,6 +6372,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-164E-418B-B4C5-2F782130829D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5207,8 +6426,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-164E-418B-B4C5-2F782130829D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="139026432"/>
         <c:axId val="139027968"/>
       </c:lineChart>
@@ -5217,14 +6450,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="139027968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="139027968"/>
@@ -5232,9 +6469,12 @@
           <c:orientation val="minMax"/>
           <c:min val="25"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="139026432"/>
         <c:crosses val="autoZero"/>
@@ -5243,9 +6483,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5256,13 +6498,25 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5310,6 +6564,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F42A-4F59-B6B5-8CD72739D502}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5358,8 +6618,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F42A-4F59-B6B5-8CD72739D502}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="176727168"/>
         <c:axId val="176729088"/>
       </c:lineChart>
@@ -5368,14 +6642,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="176729088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="176729088"/>
@@ -5383,9 +6661,12 @@
           <c:orientation val="minMax"/>
           <c:min val="30"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="176727168"/>
         <c:crosses val="autoZero"/>
@@ -5394,9 +6675,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5407,13 +6690,25 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5461,6 +6756,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-15EE-4056-881D-BF05186C6AB4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5509,8 +6810,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-15EE-4056-881D-BF05186C6AB4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="177058560"/>
         <c:axId val="177060864"/>
       </c:lineChart>
@@ -5519,14 +6834,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="177060864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="177060864"/>
@@ -5534,9 +6853,12 @@
           <c:orientation val="minMax"/>
           <c:min val="30"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="177058560"/>
         <c:crosses val="autoZero"/>
@@ -5545,9 +6867,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5558,13 +6882,25 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5612,6 +6948,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06F4-4BDD-B508-B34C4026E360}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5660,8 +7002,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06F4-4BDD-B508-B34C4026E360}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="116239744"/>
         <c:axId val="116241536"/>
       </c:lineChart>
@@ -5670,23 +7026,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116241536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="116241536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116239744"/>
         <c:crosses val="autoZero"/>
@@ -5695,9 +7058,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5708,13 +7073,25 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5762,6 +7139,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C02C-4C63-BCAF-20C651DED0D9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5810,8 +7193,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C02C-4C63-BCAF-20C651DED0D9}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="116483200"/>
         <c:axId val="116484736"/>
       </c:lineChart>
@@ -5820,23 +7217,30 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116484736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="116484736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116483200"/>
         <c:crosses val="autoZero"/>
@@ -5845,9 +7249,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -5858,13 +7264,25 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -5912,6 +7330,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2C10-4308-85FA-1BF342F537C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -5960,8 +7384,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2C10-4308-85FA-1BF342F537C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="116508928"/>
         <c:axId val="116666368"/>
       </c:lineChart>
@@ -5970,14 +7408,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116666368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="116666368"/>
@@ -5985,9 +7427,12 @@
           <c:orientation val="minMax"/>
           <c:min val="40"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116508928"/>
         <c:crosses val="autoZero"/>
@@ -5996,9 +7441,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6009,13 +7456,25 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -6063,6 +7522,12 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5A4-4E51-8C69-2B1BF300BE55}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6111,8 +7576,22 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D5A4-4E51-8C69-2B1BF300BE55}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:marker val="1"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
         <c:axId val="116678656"/>
         <c:axId val="116680192"/>
       </c:lineChart>
@@ -6121,14 +7600,18 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116680192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="116680192"/>
@@ -6136,9 +7619,12 @@
           <c:orientation val="minMax"/>
           <c:min val="40"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="116678656"/>
         <c:crosses val="autoZero"/>
@@ -6147,9 +7633,11 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -6176,7 +7664,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6206,7 +7700,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6236,7 +7736,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6266,7 +7772,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6296,7 +7808,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6328,7 +7846,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6360,7 +7884,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvPr id="22" name="Chart 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6392,7 +7922,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvPr id="23" name="Chart 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6424,7 +7960,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="24" name="Chart 23"/>
+        <xdr:cNvPr id="24" name="Chart 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6456,7 +7998,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="25" name="Chart 24"/>
+        <xdr:cNvPr id="25" name="Chart 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6488,7 +8036,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="26" name="Chart 25"/>
+        <xdr:cNvPr id="26" name="Chart 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6520,7 +8074,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="27" name="Chart 26"/>
+        <xdr:cNvPr id="27" name="Chart 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6557,7 +8117,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6587,7 +8153,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6617,7 +8189,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6647,7 +8225,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6677,7 +8261,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6709,7 +8299,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6741,7 +8337,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6773,7 +8375,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6805,7 +8413,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6837,7 +8451,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6869,7 +8489,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6901,7 +8527,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6938,7 +8570,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6968,7 +8606,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6998,7 +8642,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7028,7 +8678,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -7058,7 +8714,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7090,7 +8752,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7122,7 +8790,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7154,7 +8828,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7186,7 +8866,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvPr id="18" name="Chart 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7218,7 +8904,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvPr id="19" name="Chart 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7250,7 +8942,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvPr id="20" name="Chart 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7282,7 +8980,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -7303,7 +9007,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7345,7 +9049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7377,9 +9081,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7411,6 +9133,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7586,18 +9326,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Y31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="11" max="11" width="9.125" style="1"/>
-    <col min="21" max="21" width="9.125" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="21" max="21" width="9.109375" style="1"/>
     <col min="22" max="22" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7991,18 +9731,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="10" max="10" width="9.125" style="1"/>
-    <col min="19" max="19" width="9.125" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
+    <col min="19" max="19" width="9.109375" style="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8385,18 +10125,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="10" max="10" width="9.125" style="1"/>
-    <col min="19" max="19" width="9.125" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
+    <col min="19" max="19" width="9.109375" style="1"/>
     <col min="20" max="20" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8782,19 +10522,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:V30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="1"/>
-    <col min="10" max="10" width="9.125" style="1"/>
-    <col min="18" max="18" width="9.125" style="3"/>
-    <col min="19" max="22" width="9.125" style="4"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="10" max="10" width="9.109375" style="1"/>
+    <col min="18" max="18" width="9.109375" style="3"/>
+    <col min="19" max="22" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22">
@@ -9163,17 +10903,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T165"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -9857,34 +11597,34 @@
     </row>
     <row r="15" spans="1:20" s="31" customFormat="1"/>
     <row r="42" spans="3:9">
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-    </row>
-    <row r="43" spans="3:9" ht="14.25" thickBot="1">
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-    </row>
-    <row r="44" spans="3:9" ht="15.75" thickTop="1" thickBot="1">
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+    </row>
+    <row r="43" spans="3:9" ht="15" thickBot="1">
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+    </row>
+    <row r="44" spans="3:9" ht="15.6" thickTop="1" thickBot="1">
+      <c r="C44" s="38"/>
+      <c r="D44" s="39"/>
       <c r="E44" s="5"/>
       <c r="F44" s="26"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="3:9" ht="14.25" thickTop="1">
-      <c r="C45" s="39"/>
+    <row r="45" spans="3:9" ht="15" thickTop="1">
+      <c r="C45" s="40"/>
       <c r="D45" s="8"/>
       <c r="E45" s="9"/>
       <c r="F45" s="27"/>
@@ -10954,8 +12694,8 @@
       <c r="H163" s="16"/>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="3:9" ht="14.25" thickBot="1">
-      <c r="C164" s="40"/>
+    <row r="164" spans="3:9" ht="15" thickBot="1">
+      <c r="C164" s="35"/>
       <c r="D164" s="20"/>
       <c r="E164" s="21"/>
       <c r="F164" s="30"/>
@@ -10963,18 +12703,21 @@
       <c r="H164" s="23"/>
       <c r="I164" s="24"/>
     </row>
-    <row r="165" spans="3:9" ht="14.25" thickTop="1"/>
+    <row r="165" spans="3:9" ht="15" thickTop="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C153:C156"/>
-    <mergeCell ref="C157:C160"/>
-    <mergeCell ref="C161:C164"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C133:C136"/>
-    <mergeCell ref="C137:C140"/>
-    <mergeCell ref="C141:C144"/>
-    <mergeCell ref="C145:C148"/>
-    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="C57:C60"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="C69:C72"/>
+    <mergeCell ref="C73:C76"/>
     <mergeCell ref="C125:C128"/>
     <mergeCell ref="C81:C84"/>
     <mergeCell ref="C85:C88"/>
@@ -10987,18 +12730,15 @@
     <mergeCell ref="C113:C116"/>
     <mergeCell ref="C117:C120"/>
     <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:C48"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="C69:C72"/>
-    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C153:C156"/>
+    <mergeCell ref="C157:C160"/>
+    <mergeCell ref="C161:C164"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C137:C140"/>
+    <mergeCell ref="C141:C144"/>
+    <mergeCell ref="C145:C148"/>
+    <mergeCell ref="C149:C152"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11007,14 +12747,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" t="s">
@@ -11076,7 +12816,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.25">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -11119,7 +12859,7 @@
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19" ht="14.25">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -11162,7 +12902,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="14.25">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -11205,7 +12945,7 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" ht="14.25">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -11248,7 +12988,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19" ht="14.25">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -11291,7 +13031,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19" ht="14.25">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -11334,7 +13074,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19" ht="14.25">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
         <v>24</v>
       </c>
